--- a/Test_VBA/Test_Vba.xlsx
+++ b/Test_VBA/Test_Vba.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03059D18-CF07-40C4-8D37-2224F877C1C3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E951A106-9158-493E-B9E9-433FA4D91A73}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
   <si>
     <t>Objet</t>
   </si>
@@ -342,13 +342,19 @@
   </si>
   <si>
     <t>95 - Val-d'Oise</t>
+  </si>
+  <si>
+    <t>CODE_REGION</t>
+  </si>
+  <si>
+    <t>VENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,16 +362,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -373,20 +395,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Feuil2" xfId="1" xr:uid="{5DA3F078-5D9D-4A0A-8438-E108FC949FD0}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -738,10 +829,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB6CA5B-3182-4166-BE16-6387E9AE795D}">
   <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,12 +841,12 @@
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -763,738 +854,2231 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
         <v>3229</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
         <v>376</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>4</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <v>6</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>6</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G10" s="3">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>7</v>
+      </c>
+      <c r="K10" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G11" s="3">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>8</v>
+      </c>
+      <c r="K11" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G12" s="3">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
+        <v>9</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3">
+        <v>10</v>
+      </c>
+      <c r="K13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G14" s="3">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>11</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G15" s="3">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>12</v>
+      </c>
+      <c r="K15" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G16" s="3">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3">
+        <v>78</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3">
+        <v>13</v>
+      </c>
+      <c r="K16" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G17" s="3">
+        <v>14</v>
+      </c>
+      <c r="H17" s="3">
+        <v>26</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>14</v>
+      </c>
+      <c r="K17" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G18" s="3">
+        <v>15</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <v>15</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G19" s="3">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
+        <v>16</v>
+      </c>
+      <c r="K19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G20" s="3">
+        <v>17</v>
+      </c>
+      <c r="H20" s="3">
+        <v>19</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
+        <v>17</v>
+      </c>
+      <c r="K20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G21" s="3">
+        <v>18</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3">
+        <v>18</v>
+      </c>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G22" s="3">
+        <v>19</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
+        <v>19</v>
+      </c>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G23" s="3">
+        <v>20</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
+        <v>20</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G24" s="3">
+        <v>21</v>
+      </c>
+      <c r="H24" s="3">
+        <v>19</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3">
+        <v>21</v>
+      </c>
+      <c r="K24" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G25" s="3">
+        <v>22</v>
+      </c>
+      <c r="H25" s="3">
+        <v>22</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
+        <v>22</v>
+      </c>
+      <c r="K25" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G26" s="3">
+        <v>24</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
+        <v>23</v>
+      </c>
+      <c r="K26" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G27" s="3">
+        <v>25</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
+        <v>24</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G28" s="3">
+        <v>26</v>
+      </c>
+      <c r="H28" s="3">
+        <v>28</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
+        <v>25</v>
+      </c>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
       <c r="B29">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G29" s="3">
+        <v>27</v>
+      </c>
+      <c r="H29" s="3">
+        <v>30</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
+        <v>26</v>
+      </c>
+      <c r="K29" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
       <c r="B30">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G30" s="3">
+        <v>28</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3">
+        <v>27</v>
+      </c>
+      <c r="K30" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
       <c r="B31">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G31" s="3">
+        <v>29</v>
+      </c>
+      <c r="H31" s="3">
+        <v>26</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
+        <v>28</v>
+      </c>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
       <c r="B32">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G32" s="3">
+        <v>30</v>
+      </c>
+      <c r="H32" s="3">
+        <v>26</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3">
+        <v>29</v>
+      </c>
+      <c r="K32" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
       <c r="B33">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G33" s="3">
+        <v>31</v>
+      </c>
+      <c r="H33" s="3">
+        <v>46</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3">
+        <v>30</v>
+      </c>
+      <c r="K33" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
       <c r="B34">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G34" s="3">
+        <v>32</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3">
+        <v>31</v>
+      </c>
+      <c r="K34" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
       <c r="B35">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G35" s="3">
+        <v>33</v>
+      </c>
+      <c r="H35" s="3">
+        <v>48</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3">
+        <v>32</v>
+      </c>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
       <c r="B36">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G36" s="3">
+        <v>34</v>
+      </c>
+      <c r="H36" s="3">
+        <v>39</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3">
+        <v>33</v>
+      </c>
+      <c r="K36" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
       <c r="B37">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G37" s="3">
+        <v>35</v>
+      </c>
+      <c r="H37" s="3">
+        <v>47</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
+        <v>34</v>
+      </c>
+      <c r="K37" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
       <c r="B38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G38" s="3">
+        <v>37</v>
+      </c>
+      <c r="H38" s="3">
+        <v>15</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
+        <v>35</v>
+      </c>
+      <c r="K38" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
       <c r="B39">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G39" s="3">
+        <v>38</v>
+      </c>
+      <c r="H39" s="3">
+        <v>31</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3">
+        <v>36</v>
+      </c>
+      <c r="K39" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
       <c r="B40">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G40" s="3">
+        <v>39</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3">
+        <v>37</v>
+      </c>
+      <c r="K40" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
       <c r="B41">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G41" s="3">
+        <v>40</v>
+      </c>
+      <c r="H41" s="3">
+        <v>19</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3">
+        <v>38</v>
+      </c>
+      <c r="K41" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
       <c r="B42">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G42" s="3">
+        <v>41</v>
+      </c>
+      <c r="H42" s="3">
+        <v>12</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3">
+        <v>39</v>
+      </c>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
       <c r="B43">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G43" s="3">
+        <v>42</v>
+      </c>
+      <c r="H43" s="3">
+        <v>34</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3">
+        <v>40</v>
+      </c>
+      <c r="K43" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
       <c r="B44">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G44" s="3">
+        <v>43</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3">
+        <v>41</v>
+      </c>
+      <c r="K44" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
       <c r="B45">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G45" s="3">
+        <v>44</v>
+      </c>
+      <c r="H45" s="3">
+        <v>62</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3">
+        <v>42</v>
+      </c>
+      <c r="K45" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
       <c r="B46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G46" s="3">
+        <v>45</v>
+      </c>
+      <c r="H46" s="3">
+        <v>20</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
+        <v>43</v>
+      </c>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
       <c r="B47">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G47" s="3">
+        <v>46</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3">
+        <v>44</v>
+      </c>
+      <c r="K47" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
       <c r="B48">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G48" s="3">
+        <v>47</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3">
+        <v>45</v>
+      </c>
+      <c r="K48" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
       <c r="B49">
         <v>35</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G49" s="3">
+        <v>48</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3">
+        <v>46</v>
+      </c>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
       <c r="B50">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G50" s="3">
+        <v>49</v>
+      </c>
+      <c r="H50" s="3">
+        <v>29</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
+        <v>47</v>
+      </c>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
       <c r="B51">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G51" s="3">
+        <v>50</v>
+      </c>
+      <c r="H51" s="3">
+        <v>25</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3">
+        <v>48</v>
+      </c>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G52" s="3">
+        <v>51</v>
+      </c>
+      <c r="H52" s="3">
+        <v>13</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3">
+        <v>49</v>
+      </c>
+      <c r="K52" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
       <c r="B53">
         <v>37</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G53" s="3">
+        <v>52</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3">
+        <v>50</v>
+      </c>
+      <c r="K53" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
       <c r="B54">
         <v>133</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G54" s="3">
+        <v>53</v>
+      </c>
+      <c r="H54" s="3">
+        <v>17</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3">
+        <v>51</v>
+      </c>
+      <c r="K54" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
       <c r="B55">
         <v>42</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G55" s="3">
+        <v>54</v>
+      </c>
+      <c r="H55" s="3">
+        <v>18</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3">
+        <v>52</v>
+      </c>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G56" s="3">
+        <v>55</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3">
+        <v>53</v>
+      </c>
+      <c r="K56" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
       <c r="B57">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G57" s="3">
+        <v>56</v>
+      </c>
+      <c r="H57" s="3">
+        <v>33</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3">
+        <v>54</v>
+      </c>
+      <c r="K57" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
       <c r="B58">
         <v>36</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G58" s="3">
+        <v>57</v>
+      </c>
+      <c r="H58" s="3">
+        <v>25</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3">
+        <v>55</v>
+      </c>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G59" s="3">
+        <v>58</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3">
+        <v>56</v>
+      </c>
+      <c r="K59" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
       <c r="B60">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G60" s="3">
+        <v>59</v>
+      </c>
+      <c r="H60" s="3">
+        <v>46</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3">
+        <v>57</v>
+      </c>
+      <c r="K60" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
       <c r="B61">
         <v>44</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G61" s="3">
+        <v>60</v>
+      </c>
+      <c r="H61" s="3">
+        <v>14</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3">
+        <v>58</v>
+      </c>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G62" s="3">
+        <v>61</v>
+      </c>
+      <c r="H62" s="3">
+        <v>10</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3">
+        <v>59</v>
+      </c>
+      <c r="K62" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
       <c r="B63">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G63" s="3">
+        <v>62</v>
+      </c>
+      <c r="H63" s="3">
+        <v>56</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3">
+        <v>60</v>
+      </c>
+      <c r="K63" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
       <c r="B64">
         <v>36</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G64" s="3">
+        <v>63</v>
+      </c>
+      <c r="H64" s="3">
+        <v>16</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3">
+        <v>61</v>
+      </c>
+      <c r="K64" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G65" s="3">
+        <v>64</v>
+      </c>
+      <c r="H65" s="3">
+        <v>34</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3">
+        <v>62</v>
+      </c>
+      <c r="K65" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
       <c r="B66">
         <v>49</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G66" s="3">
+        <v>65</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3">
+        <v>63</v>
+      </c>
+      <c r="K66" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
       <c r="B67">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G67" s="3">
+        <v>66</v>
+      </c>
+      <c r="H67" s="3">
+        <v>12</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3">
+        <v>64</v>
+      </c>
+      <c r="K67" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>75</v>
       </c>
       <c r="B68">
         <v>44</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G68" s="3">
+        <v>67</v>
+      </c>
+      <c r="H68" s="3">
+        <v>22</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3">
+        <v>65</v>
+      </c>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G69" s="3">
+        <v>68</v>
+      </c>
+      <c r="H69" s="3">
+        <v>16</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3">
+        <v>66</v>
+      </c>
+      <c r="K69" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
       <c r="B70">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G70" s="3">
+        <v>69</v>
+      </c>
+      <c r="H70" s="3">
+        <v>41</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3">
+        <v>67</v>
+      </c>
+      <c r="K70" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
       <c r="B71">
         <v>26</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G71" s="3">
+        <v>70</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3">
+        <v>68</v>
+      </c>
+      <c r="K71" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
       <c r="B72">
         <v>49</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G72" s="3">
+        <v>71</v>
+      </c>
+      <c r="H72" s="3">
+        <v>14</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3">
+        <v>69</v>
+      </c>
+      <c r="K72" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>80</v>
       </c>
       <c r="B73">
         <v>93</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G73" s="3">
+        <v>72</v>
+      </c>
+      <c r="H73" s="3">
+        <v>18</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3">
+        <v>70</v>
+      </c>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G74" s="3">
+        <v>73</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3">
+        <v>71</v>
+      </c>
+      <c r="K74" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
       <c r="B75">
         <v>37</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G75" s="3">
+        <v>74</v>
+      </c>
+      <c r="H75" s="3">
+        <v>16</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3">
+        <v>72</v>
+      </c>
+      <c r="K75" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
       <c r="B76">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G76" s="3">
+        <v>75</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3">
+        <v>73</v>
+      </c>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>84</v>
       </c>
       <c r="B77">
         <v>52</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G77" s="3">
+        <v>76</v>
+      </c>
+      <c r="H77" s="3">
+        <v>37</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3">
+        <v>74</v>
+      </c>
+      <c r="K77" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>85</v>
       </c>
       <c r="B78">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G78" s="3">
+        <v>77</v>
+      </c>
+      <c r="H78" s="3">
+        <v>45</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3">
+        <v>75</v>
+      </c>
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G79" s="3">
+        <v>78</v>
+      </c>
+      <c r="H79" s="3">
+        <v>13</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3">
+        <v>76</v>
+      </c>
+      <c r="K79" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
       <c r="B80">
         <v>56</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G80" s="3">
+        <v>79</v>
+      </c>
+      <c r="H80" s="3">
+        <v>16</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3">
+        <v>77</v>
+      </c>
+      <c r="K80" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>88</v>
       </c>
       <c r="B81">
         <v>112</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G81" s="3">
+        <v>80</v>
+      </c>
+      <c r="H81" s="3">
+        <v>21</v>
+      </c>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3">
+        <v>78</v>
+      </c>
+      <c r="K81" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>89</v>
       </c>
       <c r="B82">
         <v>30</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G82" s="3">
+        <v>81</v>
+      </c>
+      <c r="H82" s="3">
+        <v>12</v>
+      </c>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3">
+        <v>79</v>
+      </c>
+      <c r="K82" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>90</v>
       </c>
       <c r="B83">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G83" s="3">
+        <v>82</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3">
+        <v>80</v>
+      </c>
+      <c r="K83" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>91</v>
       </c>
       <c r="B84">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G84" s="3">
+        <v>83</v>
+      </c>
+      <c r="H84" s="6"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3">
+        <v>81</v>
+      </c>
+      <c r="K84" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>92</v>
       </c>
       <c r="B85">
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G85" s="3">
+        <v>84</v>
+      </c>
+      <c r="H85" s="3">
+        <v>17</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3">
+        <v>82</v>
+      </c>
+      <c r="K85" s="6"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>93</v>
       </c>
       <c r="B86">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G86" s="3">
+        <v>85</v>
+      </c>
+      <c r="H86" s="3">
+        <v>41</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3">
+        <v>83</v>
+      </c>
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>94</v>
       </c>
       <c r="B87">
         <v>53</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G87" s="3">
+        <v>86</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3">
+        <v>84</v>
+      </c>
+      <c r="K87" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>95</v>
       </c>
       <c r="B88">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G88" s="3">
+        <v>87</v>
+      </c>
+      <c r="H88" s="6"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3">
+        <v>85</v>
+      </c>
+      <c r="K88" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>96</v>
       </c>
       <c r="B89">
         <v>39</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G89" s="3">
+        <v>88</v>
+      </c>
+      <c r="H89" s="3">
+        <v>11</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3">
+        <v>86</v>
+      </c>
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>97</v>
       </c>
       <c r="B90">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G90" s="3">
+        <v>89</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3">
+        <v>87</v>
+      </c>
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>98</v>
       </c>
       <c r="B91">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G91" s="3">
+        <v>90</v>
+      </c>
+      <c r="H91" s="6"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3">
+        <v>88</v>
+      </c>
+      <c r="K91" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>99</v>
       </c>
       <c r="B92">
         <v>23</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G92" s="3">
+        <v>91</v>
+      </c>
+      <c r="H92" s="3">
+        <v>11</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3">
+        <v>89</v>
+      </c>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>100</v>
       </c>
       <c r="B93">
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G93" s="3">
+        <v>92</v>
+      </c>
+      <c r="H93" s="6"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3">
+        <v>90</v>
+      </c>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G94" s="3">
+        <v>93</v>
+      </c>
+      <c r="H94" s="3">
+        <v>31</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3">
+        <v>91</v>
+      </c>
+      <c r="K94" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>102</v>
       </c>
       <c r="B95">
         <v>64</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G95" s="3">
+        <v>94</v>
+      </c>
+      <c r="H95" s="3">
+        <v>10</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3">
+        <v>92</v>
+      </c>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G96" s="3">
+        <v>95</v>
+      </c>
+      <c r="H96" s="3">
+        <v>20</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3">
+        <v>93</v>
+      </c>
+      <c r="K96" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>104</v>
       </c>
       <c r="B97">
         <v>89</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I97" s="3"/>
+      <c r="J97" s="3">
+        <v>94</v>
+      </c>
+      <c r="K97" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>105</v>
       </c>
       <c r="B98">
         <v>22</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I98" s="3"/>
+      <c r="J98" s="3">
+        <v>95</v>
+      </c>
+      <c r="K98" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>106</v>
       </c>
       <c r="B99">
         <v>38</v>
       </c>
+      <c r="I99" s="3"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+    </row>
+    <row r="123" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+    </row>
+    <row r="124" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+    </row>
+    <row r="125" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+    </row>
+    <row r="126" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+    </row>
+    <row r="127" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+    </row>
+    <row r="128" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+    </row>
+    <row r="129" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+    </row>
+    <row r="130" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+    </row>
+    <row r="131" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+    </row>
+    <row r="132" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+    </row>
+    <row r="133" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+    </row>
+    <row r="134" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+    </row>
+    <row r="135" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+    </row>
+    <row r="136" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+    </row>
+    <row r="137" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+    </row>
+    <row r="138" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+    </row>
+    <row r="139" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+    </row>
+    <row r="140" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+    </row>
+    <row r="141" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+    </row>
+    <row r="142" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+    </row>
+    <row r="143" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+    </row>
+    <row r="144" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+    </row>
+    <row r="145" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+    </row>
+    <row r="146" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+    </row>
+    <row r="147" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+    </row>
+    <row r="148" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+    </row>
+    <row r="151" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+    </row>
+    <row r="152" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+    </row>
+    <row r="154" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+    </row>
+    <row r="160" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+    </row>
+    <row r="161" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+    </row>
+    <row r="162" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+    </row>
+    <row r="163" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+    </row>
+    <row r="164" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+    </row>
+    <row r="165" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+    </row>
+    <row r="166" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+    </row>
+    <row r="168" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J168" s="3"/>
+      <c r="K168" s="3"/>
+    </row>
+    <row r="169" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+    </row>
+    <row r="170" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+    </row>
+    <row r="171" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+    </row>
+    <row r="172" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+    </row>
+    <row r="173" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+    </row>
+    <row r="174" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+    </row>
+    <row r="175" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+    </row>
+    <row r="176" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+    </row>
+    <row r="177" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+    </row>
+    <row r="178" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
+    </row>
+    <row r="179" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
+    </row>
+    <row r="180" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+    </row>
+    <row r="181" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+    </row>
+    <row r="182" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+    </row>
+    <row r="183" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+    </row>
+    <row r="184" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+    </row>
+    <row r="185" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+    </row>
+    <row r="186" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+    </row>
+    <row r="187" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+    </row>
+    <row r="188" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+    </row>
+    <row r="189" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+    </row>
+    <row r="190" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+    </row>
+    <row r="191" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+    </row>
+    <row r="192" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+    </row>
+    <row r="193" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+    </row>
+    <row r="194" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+    </row>
+    <row r="195" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J2 J99:J1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>